--- a/biology/Zoologie/Eurycea_guttolineata/Eurycea_guttolineata.xlsx
+++ b/biology/Zoologie/Eurycea_guttolineata/Eurycea_guttolineata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Eurycea guttolineata est une espèce d'urodèles de la famille des Plethodontidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Eurycea guttolineata est une espèce d'urodèles de la famille des Plethodontidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique du Sud-Est des États-Unis[1]. Elle se rencontre en Virginie, au Kentucky, au Tennessee, en Caroline du Nord, en Caroline du Sud, en Géorgie, dans le nord de la Floride, en Alabama, au Mississippi et dans l'est de la Louisiane[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique du Sud-Est des États-Unis. Elle se rencontre en Virginie, au Kentucky, au Tennessee, en Caroline du Nord, en Caroline du Sud, en Géorgie, dans le nord de la Floride, en Alabama, au Mississippi et dans l'est de la Louisiane.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Holbrook, 1838 : North American Herpetology, or Description of the Reptiles Inhabiting the United States. First Edition. Philadelphia, J. Dobson, vol. 2 (texte intégral).</t>
         </is>
